--- a/2019_sell/20200114_mc.xlsx
+++ b/2019_sell/20200114_mc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\game\wow_dkp\2019_sell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCA1CDF-C5DA-48D1-8418-11F96155C6C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0384C118-C4BD-4C2F-AD8D-BFACF6605981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90E51262-4B9F-477D-A907-ED8B90799079}"/>
+    <workbookView xWindow="33660" yWindow="1860" windowWidth="20865" windowHeight="10920" xr2:uid="{90E51262-4B9F-477D-A907-ED8B90799079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,210 @@
   </si>
   <si>
     <t>拉怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排骨男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震地者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大地腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马果果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诶某某</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言裤子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岁月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地核护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风语者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞纳肩膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师肩膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜幕鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术师手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言肩膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召火腿甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁锭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溺水的鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Richard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火披风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂野肩铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒风腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血牙腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A401816-C903-4DC8-A8BA-32AED1B1A46C}">
   <dimension ref="A3:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,9 +949,15 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="6">
+        <v>200</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="L4" s="8" t="s">
         <v>23</v>
@@ -767,9 +977,15 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="6">
+        <v>250</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="L5" s="8" t="s">
         <v>2</v>
@@ -802,9 +1018,15 @@
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="6">
+        <v>400</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="L6" s="8" t="s">
         <v>4</v>
@@ -836,9 +1058,15 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="4">
+        <v>300</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="L7" s="8" t="s">
         <v>3</v>
@@ -867,9 +1095,15 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="4">
+        <v>200</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="O8">
         <v>4</v>
@@ -999,9 +1233,15 @@
       <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4">
+        <v>390</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1012,7 +1252,7 @@
       </c>
       <c r="M14" s="7">
         <f>SUM(C14:C99) + SUM(H:H)</f>
-        <v>0</v>
+        <v>10340</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -1029,14 +1269,20 @@
         <v>8</v>
       </c>
       <c r="M15" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4">
+        <v>200</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1045,9 +1291,15 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4">
+        <v>200</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1067,9 +1319,15 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4">
+        <v>200</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1078,9 +1336,15 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4">
+        <v>200</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1089,8 +1353,12 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
@@ -1101,7 +1369,7 @@
         <v>24</v>
       </c>
       <c r="M21" s="1">
-        <v>1000000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -1117,9 +1385,15 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4">
+        <v>300</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1130,14 +1404,20 @@
       </c>
       <c r="M23" s="7">
         <f>M14</f>
-        <v>0</v>
+        <v>10340</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4">
+        <v>200</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1148,7 +1428,7 @@
       </c>
       <c r="Q24">
         <f>INT(M38)</f>
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -1173,7 +1453,7 @@
       </c>
       <c r="Q25">
         <f>Q$24*O25</f>
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="R25" t="s">
         <v>18</v>
@@ -1181,8 +1461,12 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="G26" s="4"/>
@@ -1201,7 +1485,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ref="Q26:Q33" si="1">Q$24*O26</f>
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="R26" t="s">
         <v>18</v>
@@ -1209,8 +1493,12 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="G27" s="4"/>
@@ -1220,7 +1508,9 @@
       <c r="L27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1">
+        <v>200</v>
+      </c>
       <c r="O27">
         <v>3</v>
       </c>
@@ -1229,7 +1519,7 @@
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="R27" t="s">
         <v>18</v>
@@ -1237,8 +1527,12 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="G28" s="4"/>
@@ -1257,7 +1551,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1092</v>
       </c>
       <c r="R28" t="s">
         <v>18</v>
@@ -1285,7 +1579,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1365</v>
       </c>
       <c r="R29" t="s">
         <v>18</v>
@@ -1293,8 +1587,12 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="G30" s="4"/>
@@ -1313,7 +1611,7 @@
       </c>
       <c r="Q30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1638</v>
       </c>
       <c r="R30" t="s">
         <v>18</v>
@@ -1321,8 +1619,12 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="G31" s="4"/>
@@ -1341,7 +1643,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1911</v>
       </c>
       <c r="R31" t="s">
         <v>18</v>
@@ -1360,7 +1662,9 @@
       <c r="L32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1">
+        <v>300</v>
+      </c>
       <c r="O32">
         <v>8</v>
       </c>
@@ -1369,7 +1673,7 @@
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2184</v>
       </c>
       <c r="R32" t="s">
         <v>18</v>
@@ -1377,8 +1681,12 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="G33" s="4"/>
@@ -1397,7 +1705,7 @@
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2457</v>
       </c>
       <c r="R33" t="s">
         <v>18</v>
@@ -1405,9 +1713,15 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="4">
+        <v>200</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -1435,9 +1749,15 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="4">
+        <v>200</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1446,9 +1766,15 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="4">
+        <v>200</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1459,7 +1785,7 @@
       </c>
       <c r="M37" s="7">
         <f>M23-SUM(M25:M35)</f>
-        <v>0</v>
+        <v>9840</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -1477,14 +1803,20 @@
       </c>
       <c r="M38" s="7">
         <f>M37/M15</f>
-        <v>0</v>
+        <v>273.33333333333331</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="4">
+        <v>200</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1493,9 +1825,15 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1504,9 +1842,15 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="4">
+        <v>200</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -1522,9 +1866,15 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1570,9 +1920,15 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="4">
+        <v>200</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -1594,9 +1950,15 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="4">
+        <v>500</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -1618,9 +1980,15 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="4">
+        <v>200</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -1666,10 +2034,18 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="14"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="4">
+        <v>61</v>
+      </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -1696,9 +2072,15 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -1727,8 +2109,12 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="14"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="G50" s="4"/>
@@ -1751,9 +2137,15 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="14"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="4">
+        <v>500</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
